--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -8488,13 +8488,13 @@
         <v>86</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T41">
         <v>2.1</v>
@@ -8611,22 +8611,22 @@
         <v>3.28</v>
       </c>
       <c r="BF41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ41">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BK41">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,15 @@
     <t>['19', '23', '32', '68']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['30', '45+8', '90+1']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -431,6 +440,15 @@
   </si>
   <si>
     <t>['33', '43', '51', '72', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['68', '81']</t>
+  </si>
+  <si>
+    <t>['3', '24']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1054,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1227,7 +1245,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1609,7 +1627,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1890,7 +1908,7 @@
         <v>2.33</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1991,7 +2009,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2182,7 +2200,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2269,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>2</v>
@@ -2373,7 +2391,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2755,7 +2773,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2845,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3033,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3137,7 +3155,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3227,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3415,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3519,7 +3537,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3609,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3710,7 +3728,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4092,7 +4110,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4283,7 +4301,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4474,7 +4492,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4752,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -5047,7 +5065,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5429,7 +5447,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5516,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -5707,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -5811,7 +5829,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -5898,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6193,7 +6211,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6474,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU30">
         <v>2.94</v>
@@ -6575,7 +6593,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6665,7 +6683,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU31">
         <v>2.79</v>
@@ -6766,7 +6784,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6957,7 +6975,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7148,7 +7166,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7339,7 +7357,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7721,7 +7739,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7912,7 +7930,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>13</v>
@@ -8103,7 +8121,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8627,6 +8645,770 @@
       </c>
       <c r="BK41">
         <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5182886</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>11</v>
+      </c>
+      <c r="T42">
+        <v>4.33</v>
+      </c>
+      <c r="U42">
+        <v>2.4</v>
+      </c>
+      <c r="V42">
+        <v>2.38</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>3.4</v>
+      </c>
+      <c r="Y42">
+        <v>2.38</v>
+      </c>
+      <c r="Z42">
+        <v>1.53</v>
+      </c>
+      <c r="AA42">
+        <v>5.5</v>
+      </c>
+      <c r="AB42">
+        <v>1.14</v>
+      </c>
+      <c r="AC42">
+        <v>3.6</v>
+      </c>
+      <c r="AD42">
+        <v>3.6</v>
+      </c>
+      <c r="AE42">
+        <v>1.71</v>
+      </c>
+      <c r="AF42">
+        <v>1.03</v>
+      </c>
+      <c r="AG42">
+        <v>15</v>
+      </c>
+      <c r="AH42">
+        <v>1.18</v>
+      </c>
+      <c r="AI42">
+        <v>4.5</v>
+      </c>
+      <c r="AJ42">
+        <v>1.84</v>
+      </c>
+      <c r="AK42">
+        <v>1.98</v>
+      </c>
+      <c r="AL42">
+        <v>1.57</v>
+      </c>
+      <c r="AM42">
+        <v>2.25</v>
+      </c>
+      <c r="AN42">
+        <v>1.91</v>
+      </c>
+      <c r="AO42">
+        <v>1.22</v>
+      </c>
+      <c r="AP42">
+        <v>1.22</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>3</v>
+      </c>
+      <c r="AS42">
+        <v>1.67</v>
+      </c>
+      <c r="AT42">
+        <v>2.33</v>
+      </c>
+      <c r="AU42">
+        <v>1.59</v>
+      </c>
+      <c r="AV42">
+        <v>1.45</v>
+      </c>
+      <c r="AW42">
+        <v>3.04</v>
+      </c>
+      <c r="AX42">
+        <v>3.08</v>
+      </c>
+      <c r="AY42">
+        <v>7.9</v>
+      </c>
+      <c r="AZ42">
+        <v>1.53</v>
+      </c>
+      <c r="BA42">
+        <v>1.27</v>
+      </c>
+      <c r="BB42">
+        <v>1.5</v>
+      </c>
+      <c r="BC42">
+        <v>1.9</v>
+      </c>
+      <c r="BD42">
+        <v>2.45</v>
+      </c>
+      <c r="BE42">
+        <v>3.42</v>
+      </c>
+      <c r="BF42">
+        <v>7</v>
+      </c>
+      <c r="BG42">
+        <v>6</v>
+      </c>
+      <c r="BH42">
+        <v>11</v>
+      </c>
+      <c r="BI42">
+        <v>9</v>
+      </c>
+      <c r="BJ42">
+        <v>18</v>
+      </c>
+      <c r="BK42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5182887</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44996.77083333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>11</v>
+      </c>
+      <c r="S43">
+        <v>12</v>
+      </c>
+      <c r="T43">
+        <v>2.6</v>
+      </c>
+      <c r="U43">
+        <v>2.2</v>
+      </c>
+      <c r="V43">
+        <v>4.33</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>2.75</v>
+      </c>
+      <c r="Z43">
+        <v>1.4</v>
+      </c>
+      <c r="AA43">
+        <v>7</v>
+      </c>
+      <c r="AB43">
+        <v>1.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.86</v>
+      </c>
+      <c r="AD43">
+        <v>3.27</v>
+      </c>
+      <c r="AE43">
+        <v>3.37</v>
+      </c>
+      <c r="AF43">
+        <v>1.05</v>
+      </c>
+      <c r="AG43">
+        <v>11</v>
+      </c>
+      <c r="AH43">
+        <v>1.25</v>
+      </c>
+      <c r="AI43">
+        <v>3.74</v>
+      </c>
+      <c r="AJ43">
+        <v>1.76</v>
+      </c>
+      <c r="AK43">
+        <v>1.85</v>
+      </c>
+      <c r="AL43">
+        <v>1.73</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <v>1.25</v>
+      </c>
+      <c r="AO43">
+        <v>1.29</v>
+      </c>
+      <c r="AP43">
+        <v>1.73</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.5</v>
+      </c>
+      <c r="AS43">
+        <v>2</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>2.22</v>
+      </c>
+      <c r="AV43">
+        <v>1.71</v>
+      </c>
+      <c r="AW43">
+        <v>3.93</v>
+      </c>
+      <c r="AX43">
+        <v>1.5</v>
+      </c>
+      <c r="AY43">
+        <v>7.8</v>
+      </c>
+      <c r="AZ43">
+        <v>3.22</v>
+      </c>
+      <c r="BA43">
+        <v>1.28</v>
+      </c>
+      <c r="BB43">
+        <v>1.52</v>
+      </c>
+      <c r="BC43">
+        <v>1.94</v>
+      </c>
+      <c r="BD43">
+        <v>2.51</v>
+      </c>
+      <c r="BE43">
+        <v>3.48</v>
+      </c>
+      <c r="BF43">
+        <v>6</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>1</v>
+      </c>
+      <c r="BI43">
+        <v>3</v>
+      </c>
+      <c r="BJ43">
+        <v>7</v>
+      </c>
+      <c r="BK43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5182885</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44996.875</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>8</v>
+      </c>
+      <c r="T44">
+        <v>3.5</v>
+      </c>
+      <c r="U44">
+        <v>2.2</v>
+      </c>
+      <c r="V44">
+        <v>2.88</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>2.63</v>
+      </c>
+      <c r="Z44">
+        <v>1.44</v>
+      </c>
+      <c r="AA44">
+        <v>7</v>
+      </c>
+      <c r="AB44">
+        <v>1.1</v>
+      </c>
+      <c r="AC44">
+        <v>2.3</v>
+      </c>
+      <c r="AD44">
+        <v>3.26</v>
+      </c>
+      <c r="AE44">
+        <v>2.51</v>
+      </c>
+      <c r="AF44">
+        <v>1.04</v>
+      </c>
+      <c r="AG44">
+        <v>12</v>
+      </c>
+      <c r="AH44">
+        <v>1.25</v>
+      </c>
+      <c r="AI44">
+        <v>3.74</v>
+      </c>
+      <c r="AJ44">
+        <v>1.72</v>
+      </c>
+      <c r="AK44">
+        <v>1.9</v>
+      </c>
+      <c r="AL44">
+        <v>1.67</v>
+      </c>
+      <c r="AM44">
+        <v>2.1</v>
+      </c>
+      <c r="AN44">
+        <v>1.57</v>
+      </c>
+      <c r="AO44">
+        <v>1.29</v>
+      </c>
+      <c r="AP44">
+        <v>1.36</v>
+      </c>
+      <c r="AQ44">
+        <v>1.5</v>
+      </c>
+      <c r="AR44">
+        <v>0.5</v>
+      </c>
+      <c r="AS44">
+        <v>1.33</v>
+      </c>
+      <c r="AT44">
+        <v>0.67</v>
+      </c>
+      <c r="AU44">
+        <v>1.77</v>
+      </c>
+      <c r="AV44">
+        <v>0.72</v>
+      </c>
+      <c r="AW44">
+        <v>2.49</v>
+      </c>
+      <c r="AX44">
+        <v>2.27</v>
+      </c>
+      <c r="AY44">
+        <v>7.2</v>
+      </c>
+      <c r="AZ44">
+        <v>1.9</v>
+      </c>
+      <c r="BA44">
+        <v>1.34</v>
+      </c>
+      <c r="BB44">
+        <v>1.64</v>
+      </c>
+      <c r="BC44">
+        <v>2.09</v>
+      </c>
+      <c r="BD44">
+        <v>2.79</v>
+      </c>
+      <c r="BE44">
+        <v>4</v>
+      </c>
+      <c r="BF44">
+        <v>5</v>
+      </c>
+      <c r="BG44">
+        <v>7</v>
+      </c>
+      <c r="BH44">
+        <v>6</v>
+      </c>
+      <c r="BI44">
+        <v>4</v>
+      </c>
+      <c r="BJ44">
+        <v>11</v>
+      </c>
+      <c r="BK44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5182880</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>2.38</v>
+      </c>
+      <c r="V45">
+        <v>3.1</v>
+      </c>
+      <c r="W45">
+        <v>1.29</v>
+      </c>
+      <c r="X45">
+        <v>3.5</v>
+      </c>
+      <c r="Y45">
+        <v>2.25</v>
+      </c>
+      <c r="Z45">
+        <v>1.57</v>
+      </c>
+      <c r="AA45">
+        <v>5.5</v>
+      </c>
+      <c r="AB45">
+        <v>1.14</v>
+      </c>
+      <c r="AC45">
+        <v>2.45</v>
+      </c>
+      <c r="AD45">
+        <v>3.3</v>
+      </c>
+      <c r="AE45">
+        <v>2.5</v>
+      </c>
+      <c r="AF45">
+        <v>1.03</v>
+      </c>
+      <c r="AG45">
+        <v>17</v>
+      </c>
+      <c r="AH45">
+        <v>1.17</v>
+      </c>
+      <c r="AI45">
+        <v>5</v>
+      </c>
+      <c r="AJ45">
+        <v>1.5</v>
+      </c>
+      <c r="AK45">
+        <v>2.35</v>
+      </c>
+      <c r="AL45">
+        <v>1.44</v>
+      </c>
+      <c r="AM45">
+        <v>2.63</v>
+      </c>
+      <c r="AN45">
+        <v>1.45</v>
+      </c>
+      <c r="AO45">
+        <v>1.3</v>
+      </c>
+      <c r="AP45">
+        <v>1.45</v>
+      </c>
+      <c r="AQ45">
+        <v>3</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>2</v>
+      </c>
+      <c r="AT45">
+        <v>2</v>
+      </c>
+      <c r="AU45">
+        <v>3.01</v>
+      </c>
+      <c r="AV45">
+        <v>1.16</v>
+      </c>
+      <c r="AW45">
+        <v>4.17</v>
+      </c>
+      <c r="AX45">
+        <v>1.95</v>
+      </c>
+      <c r="AY45">
+        <v>7.4</v>
+      </c>
+      <c r="AZ45">
+        <v>2.19</v>
+      </c>
+      <c r="BA45">
+        <v>1.25</v>
+      </c>
+      <c r="BB45">
+        <v>1.47</v>
+      </c>
+      <c r="BC45">
+        <v>1.85</v>
+      </c>
+      <c r="BD45">
+        <v>2.38</v>
+      </c>
+      <c r="BE45">
+        <v>3.28</v>
+      </c>
+      <c r="BF45">
+        <v>6</v>
+      </c>
+      <c r="BG45">
+        <v>6</v>
+      </c>
+      <c r="BH45">
+        <v>19</v>
+      </c>
+      <c r="BI45">
+        <v>8</v>
+      </c>
+      <c r="BJ45">
+        <v>25</v>
+      </c>
+      <c r="BK45">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['75', '85']</t>
+  </si>
+  <si>
+    <t>['19', '82', '90+38']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -449,6 +458,9 @@
   </si>
   <si>
     <t>['3', '24']</t>
+  </si>
+  <si>
+    <t>['86', '90+24']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1066,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1144,7 +1156,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1245,7 +1257,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1627,7 +1639,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2009,7 +2021,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2200,7 +2212,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2391,7 +2403,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2773,7 +2785,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2860,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -3155,7 +3167,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3537,7 +3549,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3728,7 +3740,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3818,7 +3830,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4006,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.5</v>
@@ -4110,7 +4122,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4301,7 +4313,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4492,7 +4504,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5065,7 +5077,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5447,7 +5459,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5829,7 +5841,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6211,7 +6223,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6298,10 +6310,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6593,7 +6605,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6680,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>2.33</v>
@@ -6784,7 +6796,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -6874,7 +6886,7 @@
         <v>0.5</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU32">
         <v>0.9</v>
@@ -6975,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7166,7 +7178,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7357,7 +7369,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7739,7 +7751,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7930,7 +7942,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>13</v>
@@ -8121,7 +8133,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8694,7 +8706,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8885,7 +8897,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9267,7 +9279,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9409,6 +9421,579 @@
       </c>
       <c r="BK45">
         <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5182883</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44997.77083333334</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>14</v>
+      </c>
+      <c r="T46">
+        <v>1.73</v>
+      </c>
+      <c r="U46">
+        <v>2.6</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>1.3</v>
+      </c>
+      <c r="X46">
+        <v>3.4</v>
+      </c>
+      <c r="Y46">
+        <v>2.38</v>
+      </c>
+      <c r="Z46">
+        <v>1.53</v>
+      </c>
+      <c r="AA46">
+        <v>5.5</v>
+      </c>
+      <c r="AB46">
+        <v>1.14</v>
+      </c>
+      <c r="AC46">
+        <v>1.28</v>
+      </c>
+      <c r="AD46">
+        <v>5</v>
+      </c>
+      <c r="AE46">
+        <v>8</v>
+      </c>
+      <c r="AF46">
+        <v>1.03</v>
+      </c>
+      <c r="AG46">
+        <v>15</v>
+      </c>
+      <c r="AH46">
+        <v>1.18</v>
+      </c>
+      <c r="AI46">
+        <v>4.5</v>
+      </c>
+      <c r="AJ46">
+        <v>1.58</v>
+      </c>
+      <c r="AK46">
+        <v>2.25</v>
+      </c>
+      <c r="AL46">
+        <v>2</v>
+      </c>
+      <c r="AM46">
+        <v>1.73</v>
+      </c>
+      <c r="AN46">
+        <v>1.07</v>
+      </c>
+      <c r="AO46">
+        <v>1.14</v>
+      </c>
+      <c r="AP46">
+        <v>3.4</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AR46">
+        <v>2</v>
+      </c>
+      <c r="AS46">
+        <v>3</v>
+      </c>
+      <c r="AT46">
+        <v>1.33</v>
+      </c>
+      <c r="AU46">
+        <v>2.44</v>
+      </c>
+      <c r="AV46">
+        <v>1.89</v>
+      </c>
+      <c r="AW46">
+        <v>4.33</v>
+      </c>
+      <c r="AX46">
+        <v>1.21</v>
+      </c>
+      <c r="AY46">
+        <v>9.9</v>
+      </c>
+      <c r="AZ46">
+        <v>5.6</v>
+      </c>
+      <c r="BA46">
+        <v>1.25</v>
+      </c>
+      <c r="BB46">
+        <v>1.47</v>
+      </c>
+      <c r="BC46">
+        <v>1.85</v>
+      </c>
+      <c r="BD46">
+        <v>2.38</v>
+      </c>
+      <c r="BE46">
+        <v>3.28</v>
+      </c>
+      <c r="BF46">
+        <v>6</v>
+      </c>
+      <c r="BG46">
+        <v>6</v>
+      </c>
+      <c r="BH46">
+        <v>5</v>
+      </c>
+      <c r="BI46">
+        <v>6</v>
+      </c>
+      <c r="BJ46">
+        <v>11</v>
+      </c>
+      <c r="BK46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5182881</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44998.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>2.1</v>
+      </c>
+      <c r="U47">
+        <v>2.38</v>
+      </c>
+      <c r="V47">
+        <v>5.5</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>3.25</v>
+      </c>
+      <c r="Y47">
+        <v>2.63</v>
+      </c>
+      <c r="Z47">
+        <v>1.44</v>
+      </c>
+      <c r="AA47">
+        <v>6.5</v>
+      </c>
+      <c r="AB47">
+        <v>1.11</v>
+      </c>
+      <c r="AC47">
+        <v>1.55</v>
+      </c>
+      <c r="AD47">
+        <v>4.2</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>10.5</v>
+      </c>
+      <c r="AH47">
+        <v>1.2</v>
+      </c>
+      <c r="AI47">
+        <v>3.84</v>
+      </c>
+      <c r="AJ47">
+        <v>1.72</v>
+      </c>
+      <c r="AK47">
+        <v>2.05</v>
+      </c>
+      <c r="AL47">
+        <v>1.8</v>
+      </c>
+      <c r="AM47">
+        <v>1.91</v>
+      </c>
+      <c r="AN47">
+        <v>1.15</v>
+      </c>
+      <c r="AO47">
+        <v>1.22</v>
+      </c>
+      <c r="AP47">
+        <v>2.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>0.5</v>
+      </c>
+      <c r="AS47">
+        <v>1.67</v>
+      </c>
+      <c r="AT47">
+        <v>0.33</v>
+      </c>
+      <c r="AU47">
+        <v>1.43</v>
+      </c>
+      <c r="AV47">
+        <v>1.34</v>
+      </c>
+      <c r="AW47">
+        <v>2.77</v>
+      </c>
+      <c r="AX47">
+        <v>1.36</v>
+      </c>
+      <c r="AY47">
+        <v>8.6</v>
+      </c>
+      <c r="AZ47">
+        <v>3.94</v>
+      </c>
+      <c r="BA47">
+        <v>1.27</v>
+      </c>
+      <c r="BB47">
+        <v>1.5</v>
+      </c>
+      <c r="BC47">
+        <v>1.9</v>
+      </c>
+      <c r="BD47">
+        <v>2.45</v>
+      </c>
+      <c r="BE47">
+        <v>3.42</v>
+      </c>
+      <c r="BF47">
+        <v>6</v>
+      </c>
+      <c r="BG47">
+        <v>3</v>
+      </c>
+      <c r="BH47">
+        <v>13</v>
+      </c>
+      <c r="BI47">
+        <v>5</v>
+      </c>
+      <c r="BJ47">
+        <v>19</v>
+      </c>
+      <c r="BK47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5182884</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44998.85416666666</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>2.38</v>
+      </c>
+      <c r="V48">
+        <v>6.5</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>3.25</v>
+      </c>
+      <c r="Y48">
+        <v>2.63</v>
+      </c>
+      <c r="Z48">
+        <v>1.44</v>
+      </c>
+      <c r="AA48">
+        <v>6.5</v>
+      </c>
+      <c r="AB48">
+        <v>1.11</v>
+      </c>
+      <c r="AC48">
+        <v>1.43</v>
+      </c>
+      <c r="AD48">
+        <v>4.12</v>
+      </c>
+      <c r="AE48">
+        <v>5.9</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>10.5</v>
+      </c>
+      <c r="AH48">
+        <v>1.21</v>
+      </c>
+      <c r="AI48">
+        <v>3.74</v>
+      </c>
+      <c r="AJ48">
+        <v>1.73</v>
+      </c>
+      <c r="AK48">
+        <v>2.03</v>
+      </c>
+      <c r="AL48">
+        <v>1.91</v>
+      </c>
+      <c r="AM48">
+        <v>1.8</v>
+      </c>
+      <c r="AN48">
+        <v>1.11</v>
+      </c>
+      <c r="AO48">
+        <v>1.17</v>
+      </c>
+      <c r="AP48">
+        <v>2.19</v>
+      </c>
+      <c r="AQ48">
+        <v>1.5</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>2</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>2.61</v>
+      </c>
+      <c r="AV48">
+        <v>0.78</v>
+      </c>
+      <c r="AW48">
+        <v>3.39</v>
+      </c>
+      <c r="AX48">
+        <v>1.15</v>
+      </c>
+      <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
+        <v>6.8</v>
+      </c>
+      <c r="BA48">
+        <v>1.3</v>
+      </c>
+      <c r="BB48">
+        <v>1.57</v>
+      </c>
+      <c r="BC48">
+        <v>2.02</v>
+      </c>
+      <c r="BD48">
+        <v>2.64</v>
+      </c>
+      <c r="BE48">
+        <v>3.65</v>
+      </c>
+      <c r="BF48">
+        <v>8</v>
+      </c>
+      <c r="BG48">
+        <v>4</v>
+      </c>
+      <c r="BH48">
+        <v>9</v>
+      </c>
+      <c r="BI48">
+        <v>7</v>
+      </c>
+      <c r="BJ48">
+        <v>17</v>
+      </c>
+      <c r="BK48">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU18" t="n">
         <v>2.71</v>
@@ -4557,7 +4557,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>2.27</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.88</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.82</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.62</v>
@@ -10293,6 +10293,818 @@
       </c>
       <c r="BK48" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5182890</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45015.875</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['5', '72']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['11', '44']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5182893</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5182894</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['32', '67']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5182891</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45019.83333333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['72', '79']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>12</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.33</v>
@@ -11105,6 +11105,209 @@
       </c>
       <c r="BK52" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5182895</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45020.83333333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
         <v>2.33</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -11308,6 +11308,209 @@
       </c>
       <c r="BK53" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5182899</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45023.83333333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Municipal Vinto</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['16', '40', '64', '69']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>9</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>11</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V54" t="n">
+        <v>6</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>2.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.33</v>
@@ -5166,7 +5166,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.86</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>2.94</v>
@@ -6790,7 +6790,7 @@
         <v>2.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
         <v>2.79</v>
@@ -6993,7 +6993,7 @@
         <v>0.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
         <v>2.02</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU44" t="n">
         <v>1.77</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU45" t="n">
         <v>3.01</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.43</v>
@@ -11510,6 +11510,1224 @@
         <v>22</v>
       </c>
       <c r="BK54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5182903</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['41', '62']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5182896</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45024.77083333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V56" t="n">
+        <v>5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5182901</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45024.875</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['55', '84']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>8</v>
+      </c>
+      <c r="R57" t="n">
+        <v>9</v>
+      </c>
+      <c r="S57" t="n">
+        <v>17</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5182898</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['9', '58', '73']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>10</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V58" t="n">
+        <v>15</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5182902</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45025.77083333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['28', '57']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['15', '18', '87']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5182897</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45025.85416666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['26', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>6</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK60" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bolivia LFPB_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3745,7 +3745,7 @@
         <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
         <v>1.25</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>2.44</v>
@@ -12729,6 +12729,209 @@
       </c>
       <c r="BK60" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5182900</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Bolivia LFPB</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45026.875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['45+4', '55']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>7</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11</v>
+      </c>
+      <c r="S61" t="n">
+        <v>18</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
